--- a/Raw_data_cleaned/Burley/Burley28.xlsx
+++ b/Raw_data_cleaned/Burley/Burley28.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vitvaraaravithya/Documents/tobacco_project_review/Raw_data_cleaned/Burley/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tobacco\Raw_data_cleaned\Burley\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8216EE2B-7EAF-4149-BFCD-5C4108634A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F67C40C-4AB6-4492-AFF4-B3460560FCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4120" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="3800" windowWidth="28740" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +41,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -355,16 +355,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1B9AF02-60A8-FC45-8851-57BAEFFEA3ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE442"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="32" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:BE442"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,7 +537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>7.0100000000000002E-4</v>
       </c>
@@ -710,7 +710,7 @@
         <v>284.39797542311049</v>
       </c>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1.403E-3</v>
       </c>
@@ -883,7 +883,7 @@
         <v>278.06620445766862</v>
       </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2.104E-3</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>272.66987197534229</v>
       </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2.8050000000000002E-3</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>267.84577044738325</v>
       </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3.506E-3</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>263.43475164369931</v>
       </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4.2079999999999999E-3</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>259.34016450602064</v>
       </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6.3109999999999998E-3</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>248.49764989767868</v>
       </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>9.1160000000000008E-3</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>236.34407973155896</v>
       </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1.0519000000000001E-2</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>230.97538612114334</v>
       </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1.1220000000000001E-2</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>228.43647240615957</v>
       </c>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1.1920999999999999E-2</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>225.98371398108938</v>
       </c>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1.2623000000000001E-2</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>223.6077519208508</v>
       </c>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1.4727000000000001E-2</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>216.91724929519106</v>
       </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1.5428000000000001E-2</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>214.81723358215424</v>
       </c>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1.6129000000000001E-2</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>212.77560957718026</v>
       </c>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1.6830000000000001E-2</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>210.78920101898427</v>
       </c>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1.8933999999999999E-2</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>205.13084712029075</v>
       </c>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1.9635E-2</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>203.33863080262734</v>
       </c>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2.3141999999999999E-2</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>194.97924863169732</v>
       </c>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2.3843E-2</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>193.41781329457683</v>
       </c>
     </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2.4544E-2</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>191.88942771257643</v>
       </c>
     </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2.5245E-2</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>190.39280483335776</v>
       </c>
     </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>2.5947000000000001E-2</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>188.92466442027111</v>
       </c>
     </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>2.6648000000000002E-2</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>187.48804839740183</v>
       </c>
     </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>2.7348999999999998E-2</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>186.07976940624135</v>
       </c>
     </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>2.8752E-2</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>183.34230527513009</v>
       </c>
     </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>2.9453E-2</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>182.0132022164415</v>
       </c>
     </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>3.0154E-2</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>180.70869195908898</v>
       </c>
     </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>3.0856000000000001E-2</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>179.42614736805521</v>
       </c>
     </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>3.1557000000000002E-2</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>178.16844572913351</v>
       </c>
     </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>3.2959000000000002E-2</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>175.71912521349927</v>
       </c>
     </row>
-    <row r="33" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>3.3661000000000003E-2</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>174.52444830525678</v>
       </c>
     </row>
-    <row r="34" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>3.4361999999999997E-2</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>173.35174017637797</v>
       </c>
     </row>
-    <row r="35" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>3.5062999999999997E-2</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>172.19867574981743</v>
       </c>
     </row>
-    <row r="36" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>3.5763999999999997E-2</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>171.06467383409961</v>
       </c>
     </row>
-    <row r="37" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>3.6465999999999998E-2</v>
       </c>
@@ -6765,7 +6765,7 @@
         <v>169.94760056688065</v>
       </c>
     </row>
-    <row r="38" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>3.7166999999999999E-2</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>168.85010646420324</v>
       </c>
     </row>
-    <row r="39" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>3.9972000000000001E-2</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>164.62855954997082</v>
       </c>
     </row>
-    <row r="40" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>4.0673000000000001E-2</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>163.61374140497358</v>
       </c>
     </row>
-    <row r="41" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>4.1374000000000001E-2</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>162.61414320063983</v>
       </c>
     </row>
-    <row r="42" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>4.2076000000000002E-2</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>161.627973603898</v>
       </c>
     </row>
-    <row r="43" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>4.2777000000000003E-2</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>160.65766011466991</v>
       </c>
     </row>
-    <row r="44" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>4.3478000000000003E-2</v>
       </c>
@@ -7976,7 +7976,7 @@
         <v>159.70142029210623</v>
       </c>
     </row>
-    <row r="45" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>4.4179999999999997E-2</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v>158.75756581256752</v>
       </c>
     </row>
-    <row r="46" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>4.4880999999999997E-2</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>157.82844494619218</v>
       </c>
     </row>
-    <row r="47" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>4.7685999999999999E-2</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>154.23812458534132</v>
       </c>
     </row>
-    <row r="48" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>5.6100999999999998E-2</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>144.54200769782381</v>
       </c>
     </row>
-    <row r="49" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>6.2412000000000002E-2</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>138.15313324206198</v>
       </c>
     </row>
-    <row r="50" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>6.3814999999999997E-2</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>136.82045982484871</v>
       </c>
     </row>
-    <row r="51" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>6.4516000000000004E-2</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>136.16564082588431</v>
       </c>
     </row>
-    <row r="52" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>6.5216999999999997E-2</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>135.51799776402723</v>
       </c>
     </row>
-    <row r="53" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>6.9425000000000001E-2</v>
       </c>
@@ -9533,7 +9533,7 @@
         <v>131.77394604884032</v>
       </c>
     </row>
-    <row r="54" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>7.1528999999999995E-2</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>129.98890988127846</v>
       </c>
     </row>
-    <row r="55" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>7.2930999999999996E-2</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>128.8296259464893</v>
       </c>
     </row>
-    <row r="56" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>7.4333999999999997E-2</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v>127.69272474179364</v>
       </c>
     </row>
-    <row r="57" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>7.5735999999999998E-2</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>126.57905790511778</v>
       </c>
     </row>
-    <row r="58" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>7.7138999999999999E-2</v>
       </c>
@@ -10398,7 +10398,7 @@
         <v>125.48630318121546</v>
       </c>
     </row>
-    <row r="59" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>7.7840000000000006E-2</v>
       </c>
@@ -10571,7 +10571,7 @@
         <v>124.94823061796556</v>
       </c>
     </row>
-    <row r="60" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>7.8541E-2</v>
       </c>
@@ -10744,7 +10744,7 @@
         <v>124.41531937682431</v>
       </c>
     </row>
-    <row r="61" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>7.9242999999999994E-2</v>
       </c>
@@ -10917,7 +10917,7 @@
         <v>123.88673772582224</v>
       </c>
     </row>
-    <row r="62" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>8.0644999999999994E-2</v>
       </c>
@@ -11090,7 +11090,7 @@
         <v>122.84600403762879</v>
       </c>
     </row>
-    <row r="63" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>8.1346000000000002E-2</v>
       </c>
@@ -11263,7 +11263,7 @@
         <v>122.33293987382329</v>
       </c>
     </row>
-    <row r="64" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>8.2047999999999996E-2</v>
       </c>
@@ -11436,7 +11436,7 @@
         <v>121.82392161178218</v>
       </c>
     </row>
-    <row r="65" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>8.2749000000000003E-2</v>
       </c>
@@ -11609,7 +11609,7 @@
         <v>121.32032583308576</v>
       </c>
     </row>
-    <row r="66" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>8.3449999999999996E-2</v>
       </c>
@@ -11782,7 +11782,7 @@
         <v>120.82135214589358</v>
       </c>
     </row>
-    <row r="67" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>8.4151000000000004E-2</v>
       </c>
@@ -11955,7 +11955,7 @@
         <v>120.32693020470835</v>
       </c>
     </row>
-    <row r="68" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>8.4852999999999998E-2</v>
       </c>
@@ -12128,7 +12128,7 @@
         <v>119.8362954409793</v>
       </c>
     </row>
-    <row r="69" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>8.5554000000000005E-2</v>
       </c>
@@ -12301,7 +12301,7 @@
         <v>119.35077825004832</v>
       </c>
     </row>
-    <row r="70" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>8.6254999999999998E-2</v>
       </c>
@@ -12474,7 +12474,7 @@
         <v>118.86961063418927</v>
       </c>
     </row>
-    <row r="71" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>8.906E-2</v>
       </c>
@@ -12647,7 +12647,7 @@
         <v>116.98650628933014</v>
       </c>
     </row>
-    <row r="72" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>9.6773999999999999E-2</v>
       </c>
@@ -12820,7 +12820,7 @@
         <v>112.13079081377565</v>
       </c>
     </row>
-    <row r="73" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>0.101683</v>
       </c>
@@ -12993,7 +12993,7 @@
         <v>109.26338727944069</v>
       </c>
     </row>
-    <row r="74" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>0.103787</v>
       </c>
@@ -13166,7 +13166,7 @@
         <v>108.0826103237567</v>
       </c>
     </row>
-    <row r="75" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>0.104488</v>
       </c>
@@ -13339,7 +13339,7 @@
         <v>107.6953245327181</v>
       </c>
     </row>
-    <row r="76" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>0.105189</v>
       </c>
@@ -13512,7 +13512,7 @@
         <v>107.31103232158414</v>
       </c>
     </row>
-    <row r="77" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>0.105891</v>
       </c>
@@ -13685,7 +13685,7 @@
         <v>106.92915382316913</v>
       </c>
     </row>
-    <row r="78" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>0.10659200000000001</v>
       </c>
@@ -13858,7 +13858,7 @@
         <v>106.55073967439574</v>
       </c>
     </row>
-    <row r="79" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>0.107293</v>
       </c>
@@ -14031,7 +14031,7 @@
         <v>106.17520716153598</v>
       </c>
     </row>
-    <row r="80" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>0.10939699999999999</v>
       </c>
@@ -14204,7 +14204,7 @@
         <v>105.06502106920331</v>
       </c>
     </row>
-    <row r="81" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>0.110098</v>
       </c>
@@ -14377,7 +14377,7 @@
         <v>104.70066543989384</v>
       </c>
     </row>
-    <row r="82" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>0.11079899999999999</v>
       </c>
@@ -14550,7 +14550,7 @@
         <v>104.33901768327992</v>
       </c>
     </row>
-    <row r="83" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>0.111501</v>
       </c>
@@ -14723,7 +14723,7 @@
         <v>103.97953465180916</v>
       </c>
     </row>
-    <row r="84" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>0.112202</v>
       </c>
@@ -14896,7 +14896,7 @@
         <v>103.62320808407637</v>
       </c>
     </row>
-    <row r="85" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>0.112903</v>
       </c>
@@ -15069,7 +15069,7 @@
         <v>103.26949215705355</v>
       </c>
     </row>
-    <row r="86" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>0.114306</v>
       </c>
@@ -15242,7 +15242,7 @@
         <v>102.56927208980362</v>
       </c>
     </row>
-    <row r="87" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>0.115007</v>
       </c>
@@ -15415,7 +15415,7 @@
         <v>102.2232059607489</v>
       </c>
     </row>
-    <row r="88" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>0.11570800000000001</v>
       </c>
@@ -15588,7 +15588,7 @@
         <v>101.87962835455571</v>
       </c>
     </row>
-    <row r="89" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>0.11641</v>
       </c>
@@ -15761,7 +15761,7 @@
         <v>101.53802514192756</v>
       </c>
     </row>
-    <row r="90" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>0.11711100000000001</v>
       </c>
@@ -15934,7 +15934,7 @@
         <v>101.19934074550143</v>
       </c>
     </row>
-    <row r="91" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>0.11851299999999999</v>
       </c>
@@ -16107,7 +16107,7 @@
         <v>100.52915058648249</v>
       </c>
     </row>
-    <row r="92" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>0.120617</v>
       </c>
@@ -16280,7 +16280,7 @@
         <v>99.54093636482321</v>
       </c>
     </row>
-    <row r="93" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>0.121318</v>
       </c>
@@ -16453,7 +16453,7 @@
         <v>99.216259511721617</v>
       </c>
     </row>
-    <row r="94" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>0.122721</v>
       </c>
@@ -16626,7 +16626,7 @@
         <v>98.573150468512935</v>
       </c>
     </row>
-    <row r="95" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>0.12762999999999999</v>
       </c>
@@ -16799,7 +16799,7 @@
         <v>96.390793793366896</v>
       </c>
     </row>
-    <row r="96" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>0.13885</v>
       </c>
@@ -16972,7 +16972,7 @@
         <v>91.764966911381535</v>
       </c>
     </row>
-    <row r="97" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>0.14586299999999999</v>
       </c>
@@ -17145,7 +17145,7 @@
         <v>89.101639433944285</v>
       </c>
     </row>
-    <row r="98" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>0.14796599999999999</v>
       </c>
@@ -17318,7 +17318,7 @@
         <v>88.333949664522436</v>
       </c>
     </row>
-    <row r="99" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>0.14866799999999999</v>
       </c>
@@ -17491,7 +17491,7 @@
         <v>88.080725316080574</v>
       </c>
     </row>
-    <row r="100" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>0.15007000000000001</v>
       </c>
@@ -17664,7 +17664,7 @@
         <v>87.57946093309026</v>
       </c>
     </row>
-    <row r="101" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>0.15287500000000001</v>
       </c>
@@ -17837,7 +17837,7 @@
         <v>86.594035105338392</v>
       </c>
     </row>
-    <row r="102" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>0.15497900000000001</v>
       </c>
@@ -18010,7 +18010,7 @@
         <v>85.869732303202198</v>
       </c>
     </row>
-    <row r="103" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>0.15638099999999999</v>
       </c>
@@ -18183,7 +18183,7 @@
         <v>85.39396617540811</v>
       </c>
     </row>
-    <row r="104" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>0.15778400000000001</v>
       </c>
@@ -18356,7 +18356,7 @@
         <v>84.923245362634859</v>
       </c>
     </row>
-    <row r="105" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>0.159187</v>
       </c>
@@ -18529,7 +18529,7 @@
         <v>84.457812873748296</v>
       </c>
     </row>
-    <row r="106" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>0.159888</v>
       </c>
@@ -18702,7 +18702,7 @@
         <v>84.227213739790841</v>
       </c>
     </row>
-    <row r="107" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>0.16058900000000001</v>
       </c>
@@ -18875,7 +18875,7 @@
         <v>83.997899130478856</v>
       </c>
     </row>
-    <row r="108" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>0.16128999999999999</v>
       </c>
@@ -19048,7 +19048,7 @@
         <v>83.769857472517842</v>
       </c>
     </row>
-    <row r="109" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>0.161992</v>
       </c>
@@ -19221,7 +19221,7 @@
         <v>83.542754724184803</v>
       </c>
     </row>
-    <row r="110" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>0.162693</v>
       </c>
@@ -19394,7 +19394,7 @@
         <v>83.317226603579527</v>
       </c>
     </row>
-    <row r="111" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>0.16339400000000001</v>
       </c>
@@ -19567,7 +19567,7 @@
         <v>83.092937561343916</v>
       </c>
     </row>
-    <row r="112" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>0.16409499999999999</v>
       </c>
@@ -19740,7 +19740,7 @@
         <v>82.869876591825403</v>
       </c>
     </row>
-    <row r="113" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>0.164797</v>
       </c>
@@ -19913,7 +19913,7 @@
         <v>82.6477172223059</v>
       </c>
     </row>
-    <row r="114" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>0.16549800000000001</v>
       </c>
@@ -20086,7 +20086,7 @@
         <v>82.427081637379231</v>
       </c>
     </row>
-    <row r="115" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>0.16689999999999999</v>
       </c>
@@ -20259,7 +20259,7 @@
         <v>81.989387541975745</v>
       </c>
     </row>
-    <row r="116" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>0.167602</v>
       </c>
@@ -20432,7 +20432,7 @@
         <v>81.771999375731227</v>
       </c>
     </row>
-    <row r="117" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>0.16830300000000001</v>
       </c>
@@ -20605,7 +20605,7 @@
         <v>81.556086510497082</v>
       </c>
     </row>
-    <row r="118" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>0.16900399999999999</v>
       </c>
@@ -20778,7 +20778,7 @@
         <v>81.34132834484555</v>
       </c>
     </row>
-    <row r="119" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>0.16970499999999999</v>
       </c>
@@ -20951,7 +20951,7 @@
         <v>81.127714904615104</v>
       </c>
     </row>
-    <row r="120" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>0.170407</v>
       </c>
@@ -21124,7 +21124,7 @@
         <v>80.914934033771232</v>
       </c>
     </row>
-    <row r="121" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>0.17110800000000001</v>
       </c>
@@ -21297,7 +21297,7 @@
         <v>80.70358219803056</v>
       </c>
     </row>
-    <row r="122" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>0.17180899999999999</v>
       </c>
@@ -21470,7 +21470,7 @@
         <v>80.493345863957487</v>
       </c>
     </row>
-    <row r="123" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>0.17461399999999999</v>
       </c>
@@ -21643,7 +21643,7 @@
         <v>79.663074209644506</v>
       </c>
     </row>
-    <row r="124" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>0.180224</v>
       </c>
@@ -21816,7 +21816,7 @@
         <v>78.053325277254189</v>
       </c>
     </row>
-    <row r="125" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>0.18162700000000001</v>
       </c>
@@ -21989,7 +21989,7 @@
         <v>77.660926773146997</v>
       </c>
     </row>
-    <row r="126" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>0.19004199999999999</v>
       </c>
@@ -22162,7 +22162,7 @@
         <v>75.38791825337411</v>
       </c>
     </row>
-    <row r="127" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>0.19214600000000001</v>
       </c>
@@ -22335,7 +22335,7 @@
         <v>74.840218927229188</v>
       </c>
     </row>
-    <row r="128" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>0.193548</v>
       </c>
@@ -22508,7 +22508,7 @@
         <v>74.479637917283526</v>
       </c>
     </row>
-    <row r="129" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>0.19425000000000001</v>
       </c>
@@ -22681,7 +22681,7 @@
         <v>74.300385523404657</v>
       </c>
     </row>
-    <row r="130" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>0.196353</v>
       </c>
@@ -22854,7 +22854,7 @@
         <v>73.76848839242696</v>
       </c>
     </row>
-    <row r="131" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>0.19845699999999999</v>
       </c>
@@ -23027,7 +23027,7 @@
         <v>73.243846716960817</v>
       </c>
     </row>
-    <row r="132" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>0.201262</v>
       </c>
@@ -23200,7 +23200,7 @@
         <v>72.555795740835009</v>
       </c>
     </row>
-    <row r="133" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>0.201964</v>
       </c>
@@ -23373,7 +23373,7 @@
         <v>72.385594527355124</v>
       </c>
     </row>
-    <row r="134" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>0.20266500000000001</v>
       </c>
@@ -23546,7 +23546,7 @@
         <v>72.216421062676474</v>
       </c>
     </row>
-    <row r="135" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>0.204067</v>
       </c>
@@ -23719,7 +23719,7 @@
         <v>71.880405093786095</v>
       </c>
     </row>
-    <row r="136" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>0.20476900000000001</v>
       </c>
@@ -23892,7 +23892,7 @@
         <v>71.713313640104971</v>
       </c>
     </row>
-    <row r="137" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>0.20547000000000001</v>
       </c>
@@ -24065,7 +24065,7 @@
         <v>71.547222534995555</v>
       </c>
     </row>
-    <row r="138" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>0.20617099999999999</v>
       </c>
@@ -24238,7 +24238,7 @@
         <v>71.381887620132446</v>
       </c>
     </row>
-    <row r="139" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>0.20757400000000001</v>
       </c>
@@ -24411,7 +24411,7 @@
         <v>71.053231091586554</v>
       </c>
     </row>
-    <row r="140" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>0.208976</v>
       </c>
@@ -24584,7 +24584,7 @@
         <v>70.7277689369417</v>
       </c>
     </row>
-    <row r="141" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>0.209677</v>
       </c>
@@ -24757,7 +24757,7 @@
         <v>70.566134121524001</v>
       </c>
     </row>
-    <row r="142" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>0.21037900000000001</v>
       </c>
@@ -24930,7 +24930,7 @@
         <v>70.404994086303773</v>
       </c>
     </row>
-    <row r="143" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>0.21107999999999999</v>
       </c>
@@ -25103,7 +25103,7 @@
         <v>70.24480270650696</v>
       </c>
     </row>
-    <row r="144" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>0.211781</v>
       </c>
@@ -25276,7 +25276,7 @@
         <v>70.085324767881175</v>
       </c>
     </row>
-    <row r="145" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>0.21318400000000001</v>
       </c>
@@ -25449,7 +25449,7 @@
         <v>69.768263862855903</v>
       </c>
     </row>
-    <row r="146" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>0.21388499999999999</v>
       </c>
@@ -25622,7 +25622,7 @@
         <v>69.610896819717937</v>
       </c>
     </row>
-    <row r="147" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>0.21528800000000001</v>
       </c>
@@ -25795,7 +25795,7 @@
         <v>69.298015760623898</v>
       </c>
     </row>
-    <row r="148" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>0.21598899999999999</v>
       </c>
@@ -25968,7 +25968,7 @@
         <v>69.142714983305652</v>
       </c>
     </row>
-    <row r="149" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>0.217391</v>
       </c>
@@ -26141,7 +26141,7 @@
         <v>68.834144892911354</v>
       </c>
     </row>
-    <row r="150" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>0.21879399999999999</v>
       </c>
@@ -26314,7 +26314,7 @@
         <v>68.528034666209621</v>
       </c>
     </row>
-    <row r="151" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>0.220196</v>
       </c>
@@ -26487,7 +26487,7 @@
         <v>68.224783463145968</v>
       </c>
     </row>
-    <row r="152" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>0.22089800000000001</v>
       </c>
@@ -26660,7 +26660,7 @@
         <v>68.073921956278923</v>
       </c>
     </row>
-    <row r="153" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>0.223001</v>
       </c>
@@ -26833,7 +26833,7 @@
         <v>67.625843846146822</v>
       </c>
     </row>
-    <row r="154" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>0.225105</v>
       </c>
@@ -27006,7 +27006,7 @@
         <v>67.183255064762022</v>
       </c>
     </row>
-    <row r="155" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>0.22580600000000001</v>
       </c>
@@ -27179,7 +27179,7 @@
         <v>67.037042240577037</v>
       </c>
     </row>
-    <row r="156" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>0.22650799999999999</v>
       </c>
@@ -27352,7 +27352,7 @@
         <v>66.89123821896672</v>
       </c>
     </row>
-    <row r="157" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>0.22720899999999999</v>
       </c>
@@ -27525,7 +27525,7 @@
         <v>66.746254227702593</v>
       </c>
     </row>
-    <row r="158" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>0.23211799999999999</v>
       </c>
@@ -27698,7 +27698,7 @@
         <v>65.747756745288598</v>
       </c>
     </row>
-    <row r="159" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>0.23492299999999999</v>
       </c>
@@ -27871,7 +27871,7 @@
         <v>65.190071121066467</v>
       </c>
     </row>
-    <row r="160" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>0.23632500000000001</v>
       </c>
@@ -28044,7 +28044,7 @@
         <v>64.914732530014689</v>
       </c>
     </row>
-    <row r="161" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>0.238429</v>
       </c>
@@ -28217,7 +28217,7 @@
         <v>64.505703534043732</v>
       </c>
     </row>
-    <row r="162" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>0.243338</v>
       </c>
@@ -28390,7 +28390,7 @@
         <v>63.570355487748976</v>
       </c>
     </row>
-    <row r="163" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>0.24403900000000001</v>
       </c>
@@ -28563,7 +28563,7 @@
         <v>63.438907165796714</v>
       </c>
     </row>
-    <row r="164" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>0.24474099999999999</v>
       </c>
@@ -28736,7 +28736,7 @@
         <v>63.307791765432533</v>
       </c>
     </row>
-    <row r="165" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>0.24684400000000001</v>
       </c>
@@ -28909,7 +28909,7 @@
         <v>62.918090215192343</v>
       </c>
     </row>
-    <row r="166" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>0.26788200000000001</v>
       </c>
@@ -29082,7 +29082,7 @@
         <v>59.257086919033817</v>
       </c>
     </row>
-    <row r="167" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>0.27419399999999999</v>
       </c>
@@ -29255,7 +29255,7 @@
         <v>58.236069674980932</v>
       </c>
     </row>
-    <row r="168" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>0.27629700000000001</v>
       </c>
@@ -29428,7 +29428,7 @@
         <v>57.903188199189891</v>
       </c>
     </row>
-    <row r="169" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>0.276999</v>
       </c>
@@ -29601,7 +29601,7 @@
         <v>57.792861143182385</v>
       </c>
     </row>
-    <row r="170" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>0.28120600000000001</v>
       </c>
@@ -29774,7 +29774,7 @@
         <v>57.139832294462188</v>
       </c>
     </row>
-    <row r="171" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>0.28190700000000002</v>
       </c>
@@ -29947,7 +29947,7 @@
         <v>57.032357026143508</v>
       </c>
     </row>
-    <row r="172" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>0.282609</v>
       </c>
@@ -30120,7 +30120,7 @@
         <v>56.925105458743424</v>
       </c>
     </row>
-    <row r="173" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>0.28331000000000001</v>
       </c>
@@ -30293,7 +30293,7 @@
         <v>56.818381046475999</v>
       </c>
     </row>
-    <row r="174" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>0.28401100000000001</v>
       </c>
@@ -30466,7 +30466,7 @@
         <v>56.712028654435024</v>
       </c>
     </row>
-    <row r="175" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>0.28471200000000002</v>
       </c>
@@ -30639,7 +30639,7 @@
         <v>56.60604621163764</v>
       </c>
     </row>
-    <row r="176" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>0.285414</v>
       </c>
@@ -30812,7 +30812,7 @@
         <v>56.500281262131288</v>
       </c>
     </row>
-    <row r="177" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>0.28681600000000002</v>
       </c>
@@ -30985,7 +30985,7 @@
         <v>56.290148743845897</v>
       </c>
     </row>
-    <row r="178" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>0.287518</v>
       </c>
@@ -31158,7 +31158,7 @@
         <v>56.185477371531569</v>
       </c>
     </row>
-    <row r="179" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>0.288219</v>
       </c>
@@ -31331,7 +31331,7 @@
         <v>56.081315185654027</v>
       </c>
     </row>
-    <row r="180" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>0.28892000000000001</v>
       </c>
@@ -31504,7 +31504,7 @@
         <v>55.977510846350022</v>
       </c>
     </row>
-    <row r="181" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>0.28962100000000002</v>
       </c>
@@ -31677,7 +31677,7 @@
         <v>55.87406239087796</v>
       </c>
     </row>
-    <row r="182" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>0.290323</v>
       </c>
@@ -31850,7 +31850,7 @@
         <v>55.770821055455933</v>
       </c>
     </row>
-    <row r="183" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>0.291024</v>
       </c>
@@ -32023,7 +32023,7 @@
         <v>55.668079039488596</v>
       </c>
     </row>
-    <row r="184" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>0.29172500000000001</v>
       </c>
@@ -32196,7 +32196,7 @@
         <v>55.565687104987255</v>
       </c>
     </row>
-    <row r="185" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>0.29242600000000002</v>
       </c>
@@ -32369,7 +32369,7 @@
         <v>55.463643347813793</v>
       </c>
     </row>
-    <row r="186" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>0.293128</v>
       </c>
@@ -32542,7 +32542,7 @@
         <v>55.361801049726687</v>
       </c>
     </row>
-    <row r="187" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>0.29382900000000001</v>
       </c>
@@ -32715,7 +32715,7 @@
         <v>55.260448481816077</v>
       </c>
     </row>
-    <row r="188" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>0.29733500000000002</v>
       </c>
@@ -32888,7 +32888,7 @@
         <v>54.75864517779457</v>
       </c>
     </row>
-    <row r="189" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>0.30014000000000002</v>
       </c>
@@ -33061,7 +33061,7 @@
         <v>54.363191043651319</v>
       </c>
     </row>
-    <row r="190" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>0.30294500000000002</v>
       </c>
@@ -33234,7 +33234,7 @@
         <v>53.972963243597029</v>
       </c>
     </row>
-    <row r="191" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>0.30575000000000002</v>
       </c>
@@ -33407,7 +33407,7 @@
         <v>53.587852231401534</v>
       </c>
     </row>
-    <row r="192" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>0.32889200000000002</v>
       </c>
@@ -33580,7 +33580,7 @@
         <v>50.592646544838352</v>
       </c>
     </row>
-    <row r="193" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>0.33239800000000003</v>
       </c>
@@ -33753,7 +33753,7 @@
         <v>50.165263674757249</v>
       </c>
     </row>
-    <row r="194" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>0.33450200000000002</v>
       </c>
@@ -33926,7 +33926,7 @@
         <v>49.911898074414431</v>
       </c>
     </row>
-    <row r="195" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>0.33660600000000002</v>
       </c>
@@ -34099,7 +34099,7 @@
         <v>49.66082618522821</v>
       </c>
     </row>
-    <row r="196" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>0.33941100000000002</v>
       </c>
@@ -34272,7 +34272,7 @@
         <v>49.329613921781977</v>
       </c>
     </row>
-    <row r="197" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>0.34081299999999998</v>
       </c>
@@ -34445,7 +34445,7 @@
         <v>49.165549046959036</v>
       </c>
     </row>
-    <row r="198" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>0.34712500000000002</v>
       </c>
@@ -34618,7 +34618,7 @@
         <v>48.438855032478962</v>
       </c>
     </row>
-    <row r="199" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>0.35273500000000002</v>
       </c>
@@ -34791,7 +34791,7 @@
         <v>47.808913900806175</v>
       </c>
     </row>
-    <row r="200" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>0.35694199999999998</v>
       </c>
@@ -34964,7 +34964,7 @@
         <v>47.346007143596992</v>
       </c>
     </row>
-    <row r="201" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>0.35764400000000002</v>
       </c>
@@ -35137,7 +35137,7 @@
         <v>47.269538341435741</v>
       </c>
     </row>
-    <row r="202" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>0.36956499999999998</v>
       </c>
@@ -35310,7 +35310,7 @@
         <v>46.003581830288468</v>
       </c>
     </row>
-    <row r="203" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>0.37166900000000003</v>
       </c>
@@ -35483,7 +35483,7 @@
         <v>45.786341052976887</v>
       </c>
     </row>
-    <row r="204" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>0.37236999999999998</v>
       </c>
@@ -35656,7 +35656,7 @@
         <v>45.714361920577623</v>
       </c>
     </row>
-    <row r="205" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>0.37307200000000001</v>
       </c>
@@ -35829,7 +35829,7 @@
         <v>45.642479017787359</v>
       </c>
     </row>
-    <row r="206" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>0.37377300000000002</v>
       </c>
@@ -36002,7 +36002,7 @@
         <v>45.570896267743862</v>
       </c>
     </row>
-    <row r="207" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>0.37447399999999997</v>
       </c>
@@ -36175,7 +36175,7 @@
         <v>45.499510266620184</v>
       </c>
     </row>
-    <row r="208" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>0.37517499999999998</v>
       </c>
@@ -36348,7 +36348,7 @@
         <v>45.428320154465304</v>
       </c>
     </row>
-    <row r="209" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>0.37587700000000002</v>
       </c>
@@ -36521,7 +36521,7 @@
         <v>45.357223938547143</v>
       </c>
     </row>
-    <row r="210" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>0.37657800000000002</v>
       </c>
@@ -36694,7 +36694,7 @@
         <v>45.286423321536617</v>
       </c>
     </row>
-    <row r="211" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>0.37727899999999998</v>
       </c>
@@ -36867,7 +36867,7 @@
         <v>45.215816043322029</v>
       </c>
     </row>
-    <row r="212" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>0.37797999999999998</v>
       </c>
@@ -37040,7 +37040,7 @@
         <v>45.145401264415966</v>
       </c>
     </row>
-    <row r="213" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>0.37868200000000002</v>
       </c>
@@ -37213,7 +37213,7 @@
         <v>45.075078111228578</v>
       </c>
     </row>
-    <row r="214" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>0.37938300000000003</v>
       </c>
@@ -37386,7 +37386,7 @@
         <v>45.005046104148441</v>
       </c>
     </row>
-    <row r="215" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>0.38008399999999998</v>
       </c>
@@ -37559,7 +37559,7 @@
         <v>44.935204106688886</v>
       </c>
     </row>
-    <row r="216" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>0.38078499999999998</v>
       </c>
@@ -37732,7 +37732,7 @@
         <v>44.865551299207858</v>
       </c>
     </row>
-    <row r="217" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>0.38148700000000002</v>
       </c>
@@ -37905,7 +37905,7 @@
         <v>44.795987907754508</v>
       </c>
     </row>
-    <row r="218" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>0.38218800000000003</v>
       </c>
@@ -38078,7 +38078,7 @@
         <v>44.726711307722006</v>
       </c>
     </row>
-    <row r="219" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>0.38288899999999998</v>
       </c>
@@ -38251,7 +38251,7 @@
         <v>44.657621466643576</v>
       </c>
     </row>
-    <row r="220" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>0.38358999999999999</v>
       </c>
@@ -38424,7 +38424,7 @@
         <v>44.588717584126819</v>
       </c>
     </row>
-    <row r="221" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>0.38499299999999997</v>
       </c>
@@ -38597,7 +38597,7 @@
         <v>44.451366881548573</v>
       </c>
     </row>
-    <row r="222" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>0.38569399999999998</v>
       </c>
@@ -38770,7 +38770,7 @@
         <v>44.38301638071907</v>
       </c>
     </row>
-    <row r="223" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>0.38639600000000002</v>
       </c>
@@ -38943,7 +38943,7 @@
         <v>44.314751569314268</v>
       </c>
     </row>
-    <row r="224" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>0.38709700000000002</v>
       </c>
@@ -39116,7 +39116,7 @@
         <v>44.246766155918856</v>
       </c>
     </row>
-    <row r="225" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>0.38849899999999998</v>
       </c>
@@ -39289,7 +39289,7 @@
         <v>44.111338316763621</v>
       </c>
     </row>
-    <row r="226" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>0.38920100000000002</v>
       </c>
@@ -39462,7 +39462,7 @@
         <v>44.043798276279865</v>
       </c>
     </row>
-    <row r="227" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>0.39270699999999997</v>
       </c>
@@ -39635,7 +39635,7 @@
         <v>43.709154319684338</v>
       </c>
     </row>
-    <row r="228" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>0.39340799999999998</v>
       </c>
@@ -39808,7 +39808,7 @@
         <v>43.642773393711231</v>
       </c>
     </row>
-    <row r="229" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>0.39410899999999999</v>
       </c>
@@ -39981,7 +39981,7 @@
         <v>43.576566963359085</v>
       </c>
     </row>
-    <row r="230" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>0.39551199999999997</v>
       </c>
@@ -40154,7 +40154,7 @@
         <v>43.444580850283764</v>
       </c>
     </row>
-    <row r="231" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>0.39621299999999998</v>
       </c>
@@ -40327,7 +40327,7 @@
         <v>43.378893795246228</v>
       </c>
     </row>
-    <row r="232" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>0.39901799999999998</v>
       </c>
@@ -40500,7 +40500,7 @@
         <v>43.117761899854095</v>
       </c>
     </row>
-    <row r="233" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>0.39971899999999999</v>
       </c>
@@ -40673,7 +40673,7 @@
         <v>43.052926021552764</v>
       </c>
     </row>
-    <row r="234" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>0.40112199999999998</v>
       </c>
@@ -40846,7 +40846,7 @@
         <v>42.923665924460508</v>
       </c>
     </row>
-    <row r="235" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>0.40182299999999999</v>
       </c>
@@ -41019,7 +41019,7 @@
         <v>42.859332455062315</v>
       </c>
     </row>
-    <row r="236" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>0.40252500000000002</v>
       </c>
@@ -41192,7 +41192,7 @@
         <v>42.795073582281255</v>
       </c>
     </row>
-    <row r="237" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>0.40322599999999997</v>
       </c>
@@ -41365,7 +41365,7 @@
         <v>42.731071698408279</v>
       </c>
     </row>
-    <row r="238" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>0.40533000000000002</v>
       </c>
@@ -41538,7 +41538,7 @@
         <v>42.539960818210076</v>
       </c>
     </row>
-    <row r="239" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>0.40603099999999998</v>
       </c>
@@ -41711,7 +41711,7 @@
         <v>42.476613771353051</v>
       </c>
     </row>
-    <row r="240" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>0.40743299999999999</v>
       </c>
@@ -41884,7 +41884,7 @@
         <v>42.350404980161784</v>
       </c>
     </row>
-    <row r="241" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>0.41094000000000003</v>
       </c>
@@ -42057,7 +42057,7 @@
         <v>42.037506171654776</v>
       </c>
     </row>
-    <row r="242" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>0.41164099999999998</v>
       </c>
@@ -42230,7 +42230,7 @@
         <v>41.975437248237924</v>
       </c>
     </row>
-    <row r="243" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>0.41304299999999999</v>
       </c>
@@ -42403,7 +42403,7 @@
         <v>41.851769239974971</v>
       </c>
     </row>
-    <row r="244" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>0.41584900000000002</v>
       </c>
@@ -42576,7 +42576,7 @@
         <v>41.606120868954996</v>
       </c>
     </row>
-    <row r="245" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>0.42005599999999998</v>
       </c>
@@ -42749,7 +42749,7 @@
         <v>41.242407376861294</v>
       </c>
     </row>
-    <row r="246" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>0.42286099999999999</v>
       </c>
@@ -42922,7 +42922,7 @@
         <v>41.002902694916656</v>
       </c>
     </row>
-    <row r="247" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>0.43127599999999999</v>
       </c>
@@ -43095,7 +43095,7 @@
         <v>40.298380103742453</v>
       </c>
     </row>
-    <row r="248" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>0.453015</v>
       </c>
@@ -43268,7 +43268,7 @@
         <v>38.569832397385369</v>
       </c>
     </row>
-    <row r="249" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>0.463534</v>
       </c>
@@ -43441,7 +43441,7 @@
         <v>37.777457240100709</v>
       </c>
     </row>
-    <row r="250" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>0.46423599999999998</v>
       </c>
@@ -43614,7 +43614,7 @@
         <v>37.725541069313657</v>
       </c>
     </row>
-    <row r="251" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>0.47475499999999998</v>
       </c>
@@ -43787,7 +43787,7 @@
         <v>36.961528031359329</v>
       </c>
     </row>
-    <row r="252" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>0.47545599999999999</v>
       </c>
@@ -43960,7 +43960,7 @@
         <v>36.911521881876524</v>
       </c>
     </row>
-    <row r="253" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>0.476157</v>
       </c>
@@ -44133,7 +44133,7 @@
         <v>36.861627002550797</v>
       </c>
     </row>
-    <row r="254" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>0.476858</v>
       </c>
@@ -44306,7 +44306,7 @@
         <v>36.811843000828091</v>
       </c>
     </row>
-    <row r="255" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>0.47755999999999998</v>
       </c>
@@ -44479,7 +44479,7 @@
         <v>36.762098703855948</v>
       </c>
     </row>
-    <row r="256" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>0.47826099999999999</v>
       </c>
@@ -44652,7 +44652,7 @@
         <v>36.712535444055554</v>
       </c>
     </row>
-    <row r="257" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>0.48036499999999999</v>
       </c>
@@ -44825,7 +44825,7 @@
         <v>36.564432232847693</v>
       </c>
     </row>
-    <row r="258" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>0.481767</v>
       </c>
@@ -44998,7 +44998,7 @@
         <v>36.466287284398248</v>
       </c>
     </row>
-    <row r="259" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>0.49649399999999999</v>
       </c>
@@ -45171,7 +45171,7 @@
         <v>35.460837533790851</v>
       </c>
     </row>
-    <row r="260" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>0.497195</v>
       </c>
@@ -45344,7 +45344,7 @@
         <v>35.414107558786426</v>
       </c>
     </row>
-    <row r="261" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>0.49789600000000001</v>
       </c>
@@ -45517,7 +45517,7 @@
         <v>35.367477515227499</v>
       </c>
     </row>
-    <row r="262" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>0.49859700000000001</v>
       </c>
@@ -45690,7 +45690,7 @@
         <v>35.320947064455986</v>
       </c>
     </row>
-    <row r="263" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>0.49929899999999999</v>
       </c>
@@ -45863,7 +45863,7 @@
         <v>35.27444970446988</v>
       </c>
     </row>
-    <row r="264" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>0.5</v>
       </c>
@@ -46036,7 +46036,7 @@
         <v>35.228117570466402</v>
       </c>
     </row>
-    <row r="265" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>0.50070099999999995</v>
       </c>
@@ -46209,7 +46209,7 @@
         <v>35.181884022217709</v>
       </c>
     </row>
-    <row r="266" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>0.50140300000000004</v>
       </c>
@@ -46382,7 +46382,7 @@
         <v>35.135682983793174</v>
       </c>
     </row>
-    <row r="267" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>0.50280499999999995</v>
       </c>
@@ -46555,7 +46555,7 @@
         <v>35.043706110514783</v>
       </c>
     </row>
-    <row r="268" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>0.50561</v>
       </c>
@@ -46728,7 +46728,7 @@
         <v>34.860852028643421</v>
       </c>
     </row>
-    <row r="269" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>0.50631099999999996</v>
       </c>
@@ -46901,7 +46901,7 @@
         <v>34.815395601184541</v>
       </c>
     </row>
-    <row r="270" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>0.50701300000000005</v>
       </c>
@@ -47074,7 +47074,7 @@
         <v>34.769970181025627</v>
       </c>
     </row>
-    <row r="271" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>0.507714</v>
       </c>
@@ -47247,7 +47247,7 @@
         <v>34.724704866063021</v>
       </c>
     </row>
-    <row r="272" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>0.50841499999999995</v>
       </c>
@@ -47420,7 +47420,7 @@
         <v>34.679534562159276</v>
       </c>
     </row>
-    <row r="273" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>0.50981799999999999</v>
       </c>
@@ -47593,7 +47593,7 @@
         <v>34.589413625147429</v>
       </c>
     </row>
-    <row r="274" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>0.51122000000000001</v>
       </c>
@@ -47766,7 +47766,7 @@
         <v>34.499733326952729</v>
       </c>
     </row>
-    <row r="275" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>0.51192099999999996</v>
       </c>
@@ -47939,7 +47939,7 @@
         <v>34.455033500679001</v>
       </c>
     </row>
-    <row r="276" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>0.51402499999999995</v>
       </c>
@@ -48112,7 +48112,7 @@
         <v>34.321428308739627</v>
       </c>
     </row>
-    <row r="277" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>0.51683000000000001</v>
       </c>
@@ -48285,7 +48285,7 @@
         <v>34.144599854548773</v>
       </c>
     </row>
-    <row r="278" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>0.51823300000000005</v>
       </c>
@@ -48458,7 +48458,7 @@
         <v>34.056702033865591</v>
       </c>
     </row>
-    <row r="279" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>0.51893400000000001</v>
       </c>
@@ -48631,7 +48631,7 @@
         <v>34.012920287933909</v>
       </c>
     </row>
-    <row r="280" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>0.52244000000000002</v>
       </c>
@@ -48804,7 +48804,7 @@
         <v>33.795295783492499</v>
       </c>
     </row>
-    <row r="281" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>0.523142</v>
       </c>
@@ -48977,7 +48977,7 @@
         <v>33.751988889285705</v>
       </c>
     </row>
-    <row r="282" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>0.52384299999999995</v>
       </c>
@@ -49150,7 +49150,7 @@
         <v>33.708832127074665</v>
       </c>
     </row>
-    <row r="283" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>0.52594700000000005</v>
       </c>
@@ -49323,7 +49323,7 @@
         <v>33.57982812822457</v>
       </c>
     </row>
-    <row r="284" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>0.52734899999999996</v>
       </c>
@@ -49496,7 +49496,7 @@
         <v>33.494303140951409</v>
       </c>
     </row>
-    <row r="285" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>0.52805000000000002</v>
       </c>
@@ -49669,7 +49669,7 @@
         <v>33.451670807496555</v>
       </c>
     </row>
-    <row r="286" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>0.52945299999999995</v>
       </c>
@@ -49842,7 +49842,7 @@
         <v>33.366604559241566</v>
       </c>
     </row>
-    <row r="287" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>0.53015400000000001</v>
       </c>
@@ -50015,7 +50015,7 @@
         <v>33.32423072224244</v>
       </c>
     </row>
-    <row r="288" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>0.534362</v>
       </c>
@@ -50188,7 +50188,7 @@
         <v>33.071655873422927</v>
       </c>
     </row>
-    <row r="289" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>0.53506299999999996</v>
       </c>
@@ -50361,7 +50361,7 @@
         <v>33.029875580795427</v>
       </c>
     </row>
-    <row r="290" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>0.53576400000000002</v>
       </c>
@@ -50534,7 +50534,7 @@
         <v>32.988178969617131</v>
       </c>
     </row>
-    <row r="291" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>0.53786800000000001</v>
       </c>
@@ -50707,7 +50707,7 @@
         <v>32.86352950983585</v>
       </c>
     </row>
-    <row r="292" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>0.53856899999999996</v>
       </c>
@@ -50880,7 +50880,7 @@
         <v>32.82216509962015</v>
       </c>
     </row>
-    <row r="293" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>0.54137400000000002</v>
       </c>
@@ -51053,7 +51053,7 @@
         <v>32.657470041144308</v>
       </c>
     </row>
-    <row r="294" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>0.54418</v>
       </c>
@@ -51226,7 +51226,7 @@
         <v>32.494019243090591</v>
       </c>
     </row>
-    <row r="295" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>0.54488099999999995</v>
       </c>
@@ -51399,7 +51399,7 @@
         <v>32.453387210739358</v>
       </c>
     </row>
-    <row r="296" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>0.54558200000000001</v>
       </c>
@@ -51572,7 +51572,7 @@
         <v>32.412835245582386</v>
       </c>
     </row>
-    <row r="297" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>0.54768600000000001</v>
       </c>
@@ -51745,7 +51745,7 @@
         <v>32.291599809007657</v>
       </c>
     </row>
-    <row r="298" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>0.54838699999999996</v>
       </c>
@@ -51918,7 +51918,7 @@
         <v>32.251365737981935</v>
       </c>
     </row>
-    <row r="299" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>0.55049099999999995</v>
       </c>
@@ -52091,7 +52091,7 @@
         <v>32.131078515897684</v>
       </c>
     </row>
-    <row r="300" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>0.55189299999999997</v>
       </c>
@@ -52264,7 +52264,7 @@
         <v>32.051316155050024</v>
       </c>
     </row>
-    <row r="301" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>0.55259499999999995</v>
       </c>
@@ -52437,7 +52437,7 @@
         <v>32.011494848550598</v>
       </c>
     </row>
-    <row r="302" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>0.55469800000000002</v>
       </c>
@@ -52610,7 +52610,7 @@
         <v>31.892664576940788</v>
       </c>
     </row>
-    <row r="303" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>0.55610099999999996</v>
       </c>
@@ -52783,7 +52783,7 @@
         <v>31.81377199045059</v>
       </c>
     </row>
-    <row r="304" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>0.55680200000000002</v>
       </c>
@@ -52956,7 +52956,7 @@
         <v>31.774468276040039</v>
       </c>
     </row>
-    <row r="305" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>0.55820499999999995</v>
       </c>
@@ -53129,7 +53129,7 @@
         <v>31.696032699905409</v>
       </c>
     </row>
-    <row r="306" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>0.55890600000000001</v>
       </c>
@@ -53302,7 +53302,7 @@
         <v>31.656956279630251</v>
       </c>
     </row>
-    <row r="307" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>0.55960699999999997</v>
       </c>
@@ -53475,7 +53475,7 @@
         <v>31.617955125733985</v>
       </c>
     </row>
-    <row r="308" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>0.56101000000000001</v>
       </c>
@@ -53648,7 +53648,7 @@
         <v>31.540122330804429</v>
       </c>
     </row>
-    <row r="309" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>0.56732099999999996</v>
       </c>
@@ -53821,7 +53821,7 @@
         <v>31.193681792221156</v>
       </c>
     </row>
-    <row r="310" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>0.57503499999999996</v>
       </c>
@@ -53994,7 +53994,7 @@
         <v>30.778197853686819</v>
       </c>
     </row>
-    <row r="311" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>0.59537200000000001</v>
       </c>
@@ -54167,7 +54167,7 @@
         <v>29.722883829269222</v>
       </c>
     </row>
-    <row r="312" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>0.60378699999999996</v>
       </c>
@@ -54340,7 +54340,7 @@
         <v>29.302366101579963</v>
       </c>
     </row>
-    <row r="313" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>0.61220200000000002</v>
       </c>
@@ -54513,7 +54513,7 @@
         <v>28.890829665247402</v>
       </c>
     </row>
-    <row r="314" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>0.61360400000000004</v>
       </c>
@@ -54686,7 +54686,7 @@
         <v>28.8231162815323</v>
       </c>
     </row>
-    <row r="315" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>0.61430600000000002</v>
       </c>
@@ -54859,7 +54859,7 @@
         <v>28.789301395429341</v>
       </c>
     </row>
-    <row r="316" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>0.61500699999999997</v>
       </c>
@@ -55032,7 +55032,7 @@
         <v>28.755594452236103</v>
       </c>
     </row>
-    <row r="317" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>0.61570800000000003</v>
       </c>
@@ -55205,7 +55205,7 @@
         <v>28.721947072823482</v>
       </c>
     </row>
-    <row r="318" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>0.61641000000000001</v>
       </c>
@@ -55378,7 +55378,7 @@
         <v>28.688311218705493</v>
       </c>
     </row>
-    <row r="319" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>0.61711099999999997</v>
       </c>
@@ -55551,7 +55551,7 @@
         <v>28.654782552516245</v>
       </c>
     </row>
-    <row r="320" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>0.61781200000000003</v>
       </c>
@@ -55724,7 +55724,7 @@
         <v>28.621312952429214</v>
       </c>
     </row>
-    <row r="321" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>0.61851299999999998</v>
       </c>
@@ -55897,7 +55897,7 @@
         <v>28.587902253898001</v>
       </c>
     </row>
-    <row r="322" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>0.61921499999999996</v>
       </c>
@@ -56070,7 +56070,7 @@
         <v>28.554502757191791</v>
       </c>
     </row>
-    <row r="323" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>0.61991600000000002</v>
       </c>
@@ -56243,7 +56243,7 @@
         <v>28.521209454085501</v>
       </c>
     </row>
-    <row r="324" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>0.62061699999999997</v>
       </c>
@@ -56416,7 +56416,7 @@
         <v>28.487974562422501</v>
       </c>
     </row>
-    <row r="325" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>0.62131800000000004</v>
       </c>
@@ -56589,7 +56589,7 @@
         <v>28.454797920152643</v>
       </c>
     </row>
-    <row r="326" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>0.62202000000000002</v>
       </c>
@@ -56762,7 +56762,7 @@
         <v>28.42163216252878</v>
       </c>
     </row>
-    <row r="327" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>0.62272099999999997</v>
       </c>
@@ -56935,7 +56935,7 @@
         <v>28.388571617877574</v>
       </c>
     </row>
-    <row r="328" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>0.62622699999999998</v>
       </c>
@@ -57108,7 +57108,7 @@
         <v>28.224085500664408</v>
       </c>
     </row>
-    <row r="329" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>0.62763000000000002</v>
       </c>
@@ -57281,7 +57281,7 @@
         <v>28.158663278752122</v>
       </c>
     </row>
-    <row r="330" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>0.62903200000000004</v>
       </c>
@@ -57454,7 +57454,7 @@
         <v>28.093514415334923</v>
       </c>
     </row>
-    <row r="331" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>0.62973400000000002</v>
       </c>
@@ -57627,7 +57627,7 @@
         <v>28.060978280441034</v>
       </c>
     </row>
-    <row r="332" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>0.63043499999999997</v>
       </c>
@@ -57800,7 +57800,7 @@
         <v>28.028544730353154</v>
       </c>
     </row>
-    <row r="333" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>0.63253899999999996</v>
       </c>
@@ -57973,7 +57973,7 @@
         <v>27.931533738785497</v>
       </c>
     </row>
-    <row r="334" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>0.63324000000000003</v>
       </c>
@@ -58146,7 +58146,7 @@
         <v>27.89932352431034</v>
       </c>
     </row>
-    <row r="335" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>0.63394099999999998</v>
       </c>
@@ -58319,7 +58319,7 @@
         <v>27.867168743813899</v>
       </c>
     </row>
-    <row r="336" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>0.63464200000000004</v>
       </c>
@@ -58492,7 +58492,7 @@
         <v>27.835069246466524</v>
       </c>
     </row>
-    <row r="337" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>0.63534400000000002</v>
       </c>
@@ -58665,7 +58665,7 @@
         <v>27.802979208950084</v>
       </c>
     </row>
-    <row r="338" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>0.63674600000000003</v>
       </c>
@@ -58838,7 +58838,7 @@
         <v>27.739055436838107</v>
       </c>
     </row>
-    <row r="339" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>0.63814899999999997</v>
       </c>
@@ -59011,7 +59011,7 @@
         <v>27.675305045251221</v>
       </c>
     </row>
-    <row r="340" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>0.64025200000000004</v>
       </c>
@@ -59184,7 +59184,7 @@
         <v>27.580155287645979</v>
       </c>
     </row>
-    <row r="341" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>0.64165499999999998</v>
       </c>
@@ -59357,7 +59357,7 @@
         <v>27.516947135771133</v>
       </c>
     </row>
-    <row r="342" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>0.64726499999999998</v>
       </c>
@@ -59530,7 +59530,7 @@
         <v>27.266341232070168</v>
       </c>
     </row>
-    <row r="343" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>0.65007000000000004</v>
       </c>
@@ -59703,7 +59703,7 @@
         <v>27.142304210339653</v>
       </c>
     </row>
-    <row r="344" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>0.65217400000000003</v>
       </c>
@@ -59876,7 +59876,7 @@
         <v>27.049811971127696</v>
       </c>
     </row>
-    <row r="345" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>0.65287499999999998</v>
       </c>
@@ -60049,7 +60049,7 @@
         <v>27.019099198180022</v>
       </c>
     </row>
-    <row r="346" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>0.65568000000000004</v>
       </c>
@@ -60222,7 +60222,7 @@
         <v>26.896717400106041</v>
       </c>
     </row>
-    <row r="347" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>0.65708299999999997</v>
       </c>
@@ -60395,7 +60395,7 @@
         <v>26.835810822900683</v>
       </c>
     </row>
-    <row r="348" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>0.66269299999999998</v>
       </c>
@@ -60568,7 +60568,7 @@
         <v>26.594286502491343</v>
       </c>
     </row>
-    <row r="349" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>0.68232800000000005</v>
       </c>
@@ -60741,7 +60741,7 @@
         <v>25.773519713015126</v>
       </c>
     </row>
-    <row r="350" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>0.68583499999999997</v>
       </c>
@@ -60914,7 +60914,7 @@
         <v>25.63080586016865</v>
       </c>
     </row>
-    <row r="351" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>0.68723699999999999</v>
       </c>
@@ -61087,7 +61087,7 @@
         <v>25.574072430680026</v>
       </c>
     </row>
-    <row r="352" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>0.69004200000000004</v>
       </c>
@@ -61260,7 +61260,7 @@
         <v>25.46110795347677</v>
       </c>
     </row>
-    <row r="353" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>0.69284699999999999</v>
       </c>
@@ -61433,7 +61433,7 @@
         <v>25.348861298579244</v>
       </c>
     </row>
-    <row r="354" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>0.69354800000000005</v>
       </c>
@@ -61606,7 +61606,7 @@
         <v>25.320920906861026</v>
       </c>
     </row>
-    <row r="355" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>0.69425000000000003</v>
       </c>
@@ -61779,7 +61779,7 @@
         <v>25.292985023379224</v>
       </c>
     </row>
-    <row r="356" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>0.69565200000000005</v>
       </c>
@@ -61952,7 +61952,7 @@
         <v>25.237325279820503</v>
       </c>
     </row>
-    <row r="357" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>0.696353</v>
       </c>
@@ -62125,7 +62125,7 @@
         <v>25.209561372992084</v>
       </c>
     </row>
-    <row r="358" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>0.69845699999999999</v>
       </c>
@@ -62298,7 +62298,7 @@
         <v>25.126492809316908</v>
       </c>
     </row>
-    <row r="359" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>0.69986000000000004</v>
       </c>
@@ -62471,7 +62471,7 @@
         <v>25.071318584143405</v>
       </c>
     </row>
-    <row r="360" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>0.70056099999999999</v>
       </c>
@@ -62644,7 +62644,7 @@
         <v>25.043816150108299</v>
       </c>
     </row>
-    <row r="361" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>0.70126200000000005</v>
       </c>
@@ -62817,7 +62817,7 @@
         <v>25.016356895763771</v>
       </c>
     </row>
-    <row r="362" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>0.70196400000000003</v>
       </c>
@@ -62990,7 +62990,7 @@
         <v>24.988901634633663</v>
       </c>
     </row>
-    <row r="363" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>0.70266499999999998</v>
       </c>
@@ -63163,7 +63163,7 @@
         <v>24.961528479983315</v>
       </c>
     </row>
-    <row r="364" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>0.70336600000000005</v>
       </c>
@@ -63336,7 +63336,7 @@
         <v>24.934198184694935</v>
       </c>
     </row>
-    <row r="365" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>0.704067</v>
       </c>
@@ -63509,7 +63509,7 @@
         <v>24.906910642766832</v>
       </c>
     </row>
-    <row r="366" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>0.70476899999999998</v>
       </c>
@@ -63682,7 +63682,7 @@
         <v>24.879626913213805</v>
       </c>
     </row>
-    <row r="367" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>0.70547000000000004</v>
       </c>
@@ -63855,7 +63855,7 @@
         <v>24.852424622049142</v>
       </c>
     </row>
-    <row r="368" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>0.70897600000000005</v>
       </c>
@@ -64028,7 +64028,7 @@
         <v>24.717009166536236</v>
       </c>
     </row>
-    <row r="369" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>0.709677</v>
       </c>
@@ -64201,7 +64201,7 @@
         <v>24.690059997648589</v>
       </c>
     </row>
-    <row r="370" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>0.71458600000000005</v>
       </c>
@@ -64374,7 +64374,7 @@
         <v>24.502504921532896</v>
       </c>
     </row>
-    <row r="371" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>0.74684399999999995</v>
       </c>
@@ -64547,7 +64547,7 @@
         <v>23.318657580477847</v>
       </c>
     </row>
-    <row r="372" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>0.77279100000000001</v>
       </c>
@@ -64720,7 +64720,7 @@
         <v>22.423467675700799</v>
       </c>
     </row>
-    <row r="373" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>0.78330999999999995</v>
       </c>
@@ -64893,7 +64893,7 @@
         <v>22.073979529869</v>
       </c>
     </row>
-    <row r="374" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>0.790323</v>
       </c>
@@ -65066,7 +65066,7 @@
         <v>21.845081345994934</v>
       </c>
     </row>
-    <row r="375" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>0.79382900000000001</v>
       </c>
@@ -65239,7 +65239,7 @@
         <v>21.731852581640837</v>
       </c>
     </row>
-    <row r="376" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>0.79873799999999995</v>
       </c>
@@ -65412,7 +65412,7 @@
         <v>21.574639765794835</v>
       </c>
     </row>
-    <row r="377" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>0.81556799999999996</v>
       </c>
@@ -65585,7 +65585,7 @@
         <v>21.047098290421332</v>
       </c>
     </row>
-    <row r="378" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>0.82117799999999996</v>
       </c>
@@ -65758,7 +65758,7 @@
         <v>20.875079626006737</v>
       </c>
     </row>
-    <row r="379" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>0.84361900000000001</v>
       </c>
@@ -65931,7 +65931,7 @@
         <v>20.205261528448304</v>
       </c>
     </row>
-    <row r="380" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>0.85694199999999998</v>
       </c>
@@ -66104,7 +66104,7 @@
         <v>19.8208766202021</v>
       </c>
     </row>
-    <row r="381" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>0.86746100000000004</v>
       </c>
@@ -66277,7 +66277,7 @@
         <v>19.524065940583696</v>
       </c>
     </row>
-    <row r="382" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>0.86816300000000002</v>
       </c>
@@ -66450,7 +66450,7 @@
         <v>19.504462547589128</v>
       </c>
     </row>
-    <row r="383" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>0.86886399999999997</v>
       </c>
@@ -66623,7 +66623,7 @@
         <v>19.484912339850375</v>
       </c>
     </row>
-    <row r="384" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>0.86956500000000003</v>
       </c>
@@ -66796,7 +66796,7 @@
         <v>19.465387322943378</v>
       </c>
     </row>
-    <row r="385" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A385" s="1">
         <v>0.87026599999999998</v>
       </c>
@@ -66969,7 +66969,7 @@
         <v>19.445887445677052</v>
       </c>
     </row>
-    <row r="386" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A386" s="1">
         <v>0.89971900000000005</v>
       </c>
@@ -67142,7 +67142,7 @@
         <v>18.648646398864166</v>
       </c>
     </row>
-    <row r="387" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A387" s="1">
         <v>0.90603100000000003</v>
       </c>
@@ -67315,7 +67315,7 @@
         <v>18.483208250475663</v>
       </c>
     </row>
-    <row r="388" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A388" s="1">
         <v>0.90813500000000003</v>
       </c>
@@ -67488,7 +67488,7 @@
         <v>18.428472111291477</v>
       </c>
     </row>
-    <row r="389" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A389" s="1">
         <v>0.91023799999999999</v>
       </c>
@@ -67661,7 +67661,7 @@
         <v>18.373964799422673</v>
       </c>
     </row>
-    <row r="390" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A390" s="1">
         <v>0.91654999999999998</v>
       </c>
@@ -67834,7 +67834,7 @@
         <v>18.21157090459603</v>
       </c>
     </row>
-    <row r="391" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A391" s="1">
         <v>0.91725100000000004</v>
       </c>
@@ -68007,7 +68007,7 @@
         <v>18.19364638091669</v>
       </c>
     </row>
-    <row r="392" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A392" s="1">
         <v>0.92005599999999998</v>
       </c>
@@ -68180,7 +68180,7 @@
         <v>18.122142101983954</v>
       </c>
     </row>
-    <row r="393" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A393" s="1">
         <v>0.92286100000000004</v>
       </c>
@@ -68353,7 +68353,7 @@
         <v>18.0509868380123</v>
       </c>
     </row>
-    <row r="394" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A394" s="1">
         <v>0.92426399999999997</v>
       </c>
@@ -68526,7 +68526,7 @@
         <v>18.015526626154227</v>
       </c>
     </row>
-    <row r="395" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A395" s="1">
         <v>0.92496500000000004</v>
       </c>
@@ -68699,7 +68699,7 @@
         <v>17.997841514601681</v>
       </c>
     </row>
-    <row r="396" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A396" s="1">
         <v>0.92776999999999998</v>
       </c>
@@ -68872,7 +68872,7 @@
         <v>17.927290625596513</v>
       </c>
     </row>
-    <row r="397" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A397" s="1">
         <v>0.92917300000000003</v>
       </c>
@@ -69045,7 +69045,7 @@
         <v>17.892130971537057</v>
       </c>
     </row>
-    <row r="398" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A398" s="1">
         <v>0.93057500000000004</v>
       </c>
@@ -69218,7 +69218,7 @@
         <v>17.857081448746136</v>
       </c>
     </row>
-    <row r="399" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A399" s="1">
         <v>0.93337999999999999</v>
       </c>
@@ -69391,7 +69391,7 @@
         <v>17.78721138043111</v>
       </c>
     </row>
-    <row r="400" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A400" s="1">
         <v>0.94179500000000005</v>
       </c>
@@ -69564,7 +69564,7 @@
         <v>17.579610194563436</v>
       </c>
     </row>
-    <row r="401" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A401" s="1">
         <v>0.94319799999999998</v>
       </c>
@@ -69737,7 +69737,7 @@
         <v>17.545287445142826</v>
       </c>
     </row>
-    <row r="402" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A402" s="1">
         <v>0.94389900000000004</v>
       </c>
@@ -69910,7 +69910,7 @@
         <v>17.528169038127132</v>
       </c>
     </row>
-    <row r="403" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A403" s="1">
         <v>0.9446</v>
       </c>
@@ -70083,7 +70083,7 @@
         <v>17.511071060469554</v>
       </c>
     </row>
-    <row r="404" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A404" s="1">
         <v>0.94530199999999998</v>
       </c>
@@ -70256,7 +70256,7 @@
         <v>17.493969126536818</v>
       </c>
     </row>
-    <row r="405" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A405" s="1">
         <v>0.94600300000000004</v>
       </c>
@@ -70429,7 +70429,7 @@
         <v>17.476911921410881</v>
       </c>
     </row>
-    <row r="406" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A406" s="1">
         <v>0.94740500000000005</v>
       </c>
@@ -70602,7 +70602,7 @@
         <v>17.442858415955357</v>
       </c>
     </row>
-    <row r="407" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A407" s="1">
         <v>0.94810700000000003</v>
       </c>
@@ -70775,7 +70775,7 @@
         <v>17.425837807992316</v>
       </c>
     </row>
-    <row r="408" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A408" s="1">
         <v>0.94880799999999998</v>
       </c>
@@ -70948,7 +70948,7 @@
         <v>17.408861660482877</v>
       </c>
     </row>
-    <row r="409" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A409" s="1">
         <v>0.94950900000000005</v>
       </c>
@@ -71121,7 +71121,7 @@
         <v>17.391905675279439</v>
       </c>
     </row>
-    <row r="410" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A410" s="1">
         <v>0.95091199999999998</v>
       </c>
@@ -71294,7 +71294,7 @@
         <v>17.358029924321912</v>
       </c>
     </row>
-    <row r="411" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A411" s="1">
         <v>0.95161300000000004</v>
       </c>
@@ -71467,7 +71467,7 @@
         <v>17.341134228531729</v>
       </c>
     </row>
-    <row r="412" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A412" s="1">
         <v>0.95231399999999999</v>
       </c>
@@ -71640,7 +71640,7 @@
         <v>17.324258544595914</v>
       </c>
     </row>
-    <row r="413" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A413" s="1">
         <v>0.95301499999999995</v>
       </c>
@@ -71813,7 +71813,7 @@
         <v>17.307402835155088</v>
       </c>
     </row>
-    <row r="414" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A414" s="1">
         <v>0.95371700000000004</v>
       </c>
@@ -71986,7 +71986,7 @@
         <v>17.290543060374937</v>
       </c>
     </row>
-    <row r="415" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A415" s="1">
         <v>0.95441799999999999</v>
       </c>
@@ -72159,7 +72159,7 @@
         <v>17.27372721658881</v>
       </c>
     </row>
-    <row r="416" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A416" s="1">
         <v>0.95652199999999998</v>
       </c>
@@ -72332,7 +72332,7 @@
         <v>17.223374825617384</v>
       </c>
     </row>
-    <row r="417" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A417" s="1">
         <v>0.95722300000000005</v>
       </c>
@@ -72505,7 +72505,7 @@
         <v>17.206638240222212</v>
       </c>
     </row>
-    <row r="418" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A418" s="1">
         <v>0.957924</v>
       </c>
@@ -72678,7 +72678,7 @@
         <v>17.189921370355634</v>
       </c>
     </row>
-    <row r="419" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A419" s="1">
         <v>0.95862599999999998</v>
       </c>
@@ -72851,7 +72851,7 @@
         <v>17.173200374349413</v>
       </c>
     </row>
-    <row r="420" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A420" s="1">
         <v>0.96072900000000006</v>
       </c>
@@ -73024,7 +73024,7 @@
         <v>17.123226594241267</v>
       </c>
     </row>
-    <row r="421" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A421" s="1">
         <v>0.96143100000000004</v>
       </c>
@@ -73197,7 +73197,7 @@
         <v>17.106584089286656</v>
       </c>
     </row>
-    <row r="422" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A422" s="1">
         <v>0.96213199999999999</v>
       </c>
@@ -73370,7 +73370,7 @@
         <v>17.089984802714646</v>
       </c>
     </row>
-    <row r="423" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A423" s="1">
         <v>0.963534</v>
       </c>
@@ -73543,7 +73543,7 @@
         <v>17.056844577017756</v>
       </c>
     </row>
-    <row r="424" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A424" s="1">
         <v>0.96423599999999998</v>
       </c>
@@ -73716,7 +73716,7 @@
         <v>17.040279983589819</v>
       </c>
     </row>
-    <row r="425" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A425" s="1">
         <v>0.965638</v>
       </c>
@@ -73889,7 +73889,7 @@
         <v>17.007256041694674</v>
       </c>
     </row>
-    <row r="426" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A426" s="1">
         <v>0.96704100000000004</v>
       </c>
@@ -74062,7 +74062,7 @@
         <v>16.974285756247539</v>
       </c>
     </row>
-    <row r="427" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A427" s="1">
         <v>0.96774199999999999</v>
       </c>
@@ -74235,7 +74235,7 @@
         <v>16.95784121171436</v>
       </c>
     </row>
-    <row r="428" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A428" s="1">
         <v>0.96844300000000005</v>
       </c>
@@ -74408,7 +74408,7 @@
         <v>16.941415843065691</v>
       </c>
     </row>
-    <row r="429" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A429" s="1">
         <v>0.96914400000000001</v>
       </c>
@@ -74581,7 +74581,7 @@
         <v>16.925009615060866</v>
       </c>
     </row>
-    <row r="430" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A430" s="1">
         <v>0.96984599999999999</v>
       </c>
@@ -74754,7 +74754,7 @@
         <v>16.908599129398219</v>
       </c>
     </row>
-    <row r="431" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A431" s="1">
         <v>0.97054700000000005</v>
       </c>
@@ -74927,7 +74927,7 @@
         <v>16.892231104492716</v>
       </c>
     </row>
-    <row r="432" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A432" s="1">
         <v>0.971248</v>
       </c>
@@ -75100,7 +75100,7 @@
         <v>16.875882114989544</v>
       </c>
     </row>
-    <row r="433" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A433" s="1">
         <v>0.97194999999999998</v>
       </c>
@@ -75273,7 +75273,7 @@
         <v>16.859528844279232</v>
       </c>
     </row>
-    <row r="434" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A434" s="1">
         <v>0.97265100000000004</v>
       </c>
@@ -75446,7 +75446,7 @@
         <v>16.843217848034804</v>
       </c>
     </row>
-    <row r="435" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A435" s="1">
         <v>0.97335199999999999</v>
       </c>
@@ -75619,7 +75619,7 @@
         <v>16.826925782741569</v>
       </c>
     </row>
-    <row r="436" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A436" s="1">
         <v>0.97405299999999995</v>
       </c>
@@ -75792,7 +75792,7 @@
         <v>16.810652613773208</v>
       </c>
     </row>
-    <row r="437" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A437" s="1">
         <v>0.97475500000000004</v>
       </c>
@@ -75965,7 +75965,7 @@
         <v>16.79437513273222</v>
       </c>
     </row>
-    <row r="438" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A438" s="1">
         <v>0.97545599999999999</v>
       </c>
@@ -76138,7 +76138,7 @@
         <v>16.778139679714251</v>
       </c>
     </row>
-    <row r="439" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A439" s="1">
         <v>0.97755999999999998</v>
       </c>
@@ -76311,7 +76311,7 @@
         <v>16.729522874334585</v>
       </c>
     </row>
-    <row r="440" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A440" s="1">
         <v>0.97826100000000005</v>
       </c>
@@ -76484,7 +76484,7 @@
         <v>16.713362414271302</v>
       </c>
     </row>
-    <row r="441" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A441" s="1">
         <v>0.98036500000000004</v>
       </c>
@@ -76657,7 +76657,7 @@
         <v>16.664969875446296</v>
       </c>
     </row>
-    <row r="442" spans="1:57" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A442" s="1">
         <v>0.98106599999999999</v>
       </c>
